--- a/risk_data.xlsx
+++ b/risk_data.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>fire</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -920,6 +920,106 @@
       <c r="E18" t="inlineStr">
         <is>
           <t>2023-5-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>22</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Macca</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2020-1-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>23</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Flood</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Jeedah</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2022-9-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>25</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2001-8-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>26</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Flood</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Abha</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2022-5-15</t>
         </is>
       </c>
     </row>

--- a/risk_data.xlsx
+++ b/risk_data.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1023,6 +1023,31 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>28</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Jeddah</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2018-4-2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
